--- a/docs/user_stories_team_5.xlsx
+++ b/docs/user_stories_team_5.xlsx
@@ -8,14 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakota\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BCFAD-2B39-4AE4-8DFC-6F3D1AA85824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2ACAB2-CDB3-468C-94CD-72DA54A51F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28710" yWindow="5535" windowWidth="28710" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5175" windowWidth="29040" windowHeight="15720" tabRatio="621" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="3" r:id="rId1"/>
-    <sheet name="US-1" sheetId="9" r:id="rId2"/>
-    <sheet name="US-2" sheetId="11" r:id="rId3"/>
+    <sheet name="US-Example" sheetId="9" r:id="rId2"/>
+    <sheet name="US-1" sheetId="11" r:id="rId3"/>
+    <sheet name="US-2" sheetId="14" r:id="rId4"/>
+    <sheet name="US-3" sheetId="15" r:id="rId5"/>
+    <sheet name="US-4" sheetId="16" r:id="rId6"/>
+    <sheet name="US-5" sheetId="17" r:id="rId7"/>
+    <sheet name="US-6" sheetId="18" r:id="rId8"/>
+    <sheet name="US-7" sheetId="19" r:id="rId9"/>
+    <sheet name="US-8" sheetId="20" r:id="rId10"/>
+    <sheet name="US-9" sheetId="21" r:id="rId11"/>
+    <sheet name="US-10" sheetId="22" r:id="rId12"/>
+    <sheet name="US-11" sheetId="23" r:id="rId13"/>
+    <sheet name="US-12" sheetId="24" r:id="rId14"/>
+    <sheet name="US-13" sheetId="25" r:id="rId15"/>
+    <sheet name="US-14" sheetId="26" r:id="rId16"/>
+    <sheet name="US-15" sheetId="27" r:id="rId17"/>
+    <sheet name="US-16" sheetId="28" r:id="rId18"/>
+    <sheet name="US-17" sheetId="29" r:id="rId19"/>
+    <sheet name="US-18" sheetId="30" r:id="rId20"/>
+    <sheet name="US-19" sheetId="31" r:id="rId21"/>
+    <sheet name="US-20" sheetId="32" r:id="rId22"/>
+    <sheet name="US-21" sheetId="33" r:id="rId23"/>
+    <sheet name="US-22" sheetId="34" r:id="rId24"/>
+    <sheet name="US-23" sheetId="35" r:id="rId25"/>
+    <sheet name="US-24" sheetId="36" r:id="rId26"/>
+    <sheet name="US-25" sheetId="37" r:id="rId27"/>
+    <sheet name="US-26" sheetId="38" r:id="rId28"/>
+    <sheet name="US-27" sheetId="39" r:id="rId29"/>
+    <sheet name="US-28" sheetId="40" r:id="rId30"/>
+    <sheet name="US-29" sheetId="41" r:id="rId31"/>
+    <sheet name="US-30" sheetId="42" r:id="rId32"/>
+    <sheet name="US-31" sheetId="43" r:id="rId33"/>
+    <sheet name="US-32" sheetId="44" r:id="rId34"/>
+    <sheet name="US-33" sheetId="45" r:id="rId35"/>
+    <sheet name="US-34" sheetId="49" r:id="rId36"/>
+    <sheet name="US-35" sheetId="46" r:id="rId37"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="195">
   <si>
     <t>Title</t>
   </si>
@@ -543,6 +577,173 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Manager types in the product ID, product name, manudacturer, price, and quantity into respective fields and then click the add product button.</t>
+  </si>
+  <si>
+    <t>Manager clicks the display products button and is taken to a new page with the full report, they sort by clicking on the respective label at the top.</t>
+  </si>
+  <si>
+    <t>Customer enters their first name and last name, selects a store from the menu, then click register. An ID is generated for them.</t>
+  </si>
+  <si>
+    <t>Manager clicks the display customers button and are taken to a new page with the full report.</t>
+  </si>
+  <si>
+    <t>Customer clicks the create order button and is taken to a page that allows them to add products.</t>
+  </si>
+  <si>
+    <t>Customer selects products from product search, types in a quantity, then clicks add to order. Once finished adding products they toggle if using SNAP, then clicks finish order button.</t>
+  </si>
+  <si>
+    <t>Customer is shown their order receipt and click the pay button once ready.</t>
+  </si>
+  <si>
+    <t>Customer selects order history then enters their ID, selects the correct order from the dropdown based on the order's ID, then clicks view order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager clicks select file button and selects the text file they want to upload from file explorer. </t>
+  </si>
+  <si>
+    <t>Manager clicks save all data button.</t>
+  </si>
+  <si>
+    <t>Customer toggles SNAP on the add product to order screen.</t>
+  </si>
+  <si>
+    <t>Manager types in product ID then the new quantity and clicks the update button.</t>
+  </si>
+  <si>
+    <t>Manager types in product ID then the new price and clicks the update button.</t>
+  </si>
+  <si>
+    <t>Customer enters their ID in order history and is shown all of their orders.</t>
+  </si>
+  <si>
+    <t>Customer enters the order ID, product ID, and quantity, then clicks the return item button.</t>
+  </si>
+  <si>
+    <t>Manager enters the product ID and clicks remove product.</t>
+  </si>
+  <si>
+    <t>Customer enters what they want in the product search bar while creating an order</t>
+  </si>
+  <si>
+    <t>Manager enters the new food tax or new non-food tax in the respective field then click update.</t>
+  </si>
+  <si>
+    <t>Manager clicks the save products button.</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Manager enters a manufacturer name in the field than clicks the create report button.</t>
+  </si>
+  <si>
+    <t>Manager enters a customer's ID and selects the corresponding order with the order ID they want from the order box then clicks display receipt.</t>
+  </si>
+  <si>
+    <t>Manager enters a customer's ID and clicks the display all receipts button.</t>
+  </si>
+  <si>
+    <t>Manager clicks the display order statistics button.</t>
+  </si>
+  <si>
+    <t>Manager clicks the display popular products (quantity) button</t>
+  </si>
+  <si>
+    <t>Manager clicks the display popular products (revenue) button</t>
+  </si>
+  <si>
+    <t>Manager clicks the display customer order totals button.</t>
+  </si>
+  <si>
+    <t>Manager clicks the display SNAP order statistics button.</t>
+  </si>
+  <si>
+    <t>Manager clicks the display order in date range button.</t>
+  </si>
+  <si>
+    <t>Manager enters a store name and clicks the create store button. The ID is generated.</t>
+  </si>
+  <si>
+    <t>Dropdown list of stores is shown automatically on the first manager page.</t>
+  </si>
+  <si>
+    <t>Customer clicks the all stores button then clicks register.</t>
+  </si>
+  <si>
+    <t>Customer selects a store they are registered at during the create order process.</t>
+  </si>
+  <si>
+    <t>Manager clicks the display stores sales button.</t>
+  </si>
+  <si>
+    <t>Method/logic is written, needs GUI implementation.</t>
+  </si>
+  <si>
+    <t>Adds a new product to an inventory</t>
+  </si>
+  <si>
+    <t>1. Create a new inventory
+2. Create a new product with the ID 1001, quantity 10, name "Apple", price .50, manufacturer "Davie's Apple Orchard', and isFood true 
+3. Add the product to the inventory</t>
+  </si>
+  <si>
+    <t>The product will successfully add to the inventory</t>
+  </si>
+  <si>
+    <t>Registers a new customer to a store</t>
+  </si>
+  <si>
+    <t>The customer will successfully register to the store</t>
+  </si>
+  <si>
+    <t>1. Create a new store
+2. Create a new customer with id 1255, first name "Doug", and last name "Charles"
+3. Register the customer to the store</t>
+  </si>
+  <si>
+    <t>Displays all customers registed at the store alphabetically by first name, then last name, then by their ID</t>
+  </si>
+  <si>
+    <t>1. Create a new store
+2. Create multiple customers
+3. Register them to the store
+4. Print the list of customers</t>
+  </si>
+  <si>
+    <t>The customers should be properly sorted regardless of order they are added</t>
+  </si>
+  <si>
+    <t>Right now this test is using 6 customers and covering all 3 sorting requirement at once. Need to add tests for each level of sorting individually.</t>
+  </si>
+  <si>
+    <t>Updates the quantity of a product in an inventory</t>
+  </si>
+  <si>
+    <t>1. Create a new inventory
+2. Create a new product with a quantity of 10
+3. Add the product to the inventory
+4. Update the quantity of the product to 11</t>
+  </si>
+  <si>
+    <t>The quantity of the product in the inventory should be 11</t>
+  </si>
+  <si>
+    <t>Remove an existing product from an inventory</t>
+  </si>
+  <si>
+    <t>1. Create a new inventory
+2. Create a new product
+3. Add the product to the inventory
+4. Check that the product is in the inventory
+5. Remove the product from the inventory</t>
+  </si>
+  <si>
+    <t>The product should no longer be in the inventory</t>
   </si>
 </sst>
 </file>
@@ -578,7 +779,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,8 +792,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -600,11 +807,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -627,6 +845,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,10 +1239,10 @@
   <dimension ref="A2:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1070,7 +1297,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1089,15 +1316,24 @@
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -1118,17 +1354,22 @@
       <c r="F4" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="L4" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1147,15 +1388,24 @@
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
@@ -1173,17 +1423,26 @@
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1202,17 +1461,22 @@
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="L7" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1231,15 +1495,20 @@
       <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -1260,17 +1529,22 @@
       <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L9" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1289,15 +1563,22 @@
       <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="L10" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1313,15 +1594,20 @@
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -1341,6 +1627,9 @@
       </c>
       <c r="F12" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>111</v>
@@ -1369,17 +1658,22 @@
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L13" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1398,12 +1692,21 @@
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G14" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="I14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
@@ -1423,6 +1726,9 @@
       </c>
       <c r="F15" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>34</v>
@@ -1432,7 +1738,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1448,12 +1754,17 @@
       <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
@@ -1474,13 +1785,20 @@
       <c r="F17" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
@@ -1501,12 +1819,21 @@
       <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G18" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="I18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
@@ -1526,6 +1853,9 @@
       </c>
       <c r="F19" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>99</v>
@@ -1535,7 +1865,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1554,12 +1884,17 @@
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="I20" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
@@ -1579,6 +1914,9 @@
       </c>
       <c r="F21" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1604,6 +1942,9 @@
       <c r="F22" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1631,15 +1972,22 @@
       <c r="F23" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="L23" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1654,6 +2002,9 @@
       </c>
       <c r="E24" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1676,6 +2027,9 @@
       <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1700,6 +2054,9 @@
       <c r="F26" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>56</v>
       </c>
@@ -1727,6 +2084,9 @@
       <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="H27" s="2" t="s">
         <v>55</v>
       </c>
@@ -1754,6 +2114,9 @@
       <c r="F28" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="H28" s="2" t="s">
         <v>55</v>
       </c>
@@ -1781,6 +2144,9 @@
       <c r="F29" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="G29" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="H29" s="2" t="s">
         <v>63</v>
       </c>
@@ -1805,6 +2171,9 @@
       <c r="E30" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="H30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1832,6 +2201,9 @@
       <c r="F31" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="H31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1840,7 +2212,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1858,13 +2230,16 @@
       </c>
       <c r="F32" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1879,6 +2254,9 @@
       </c>
       <c r="E33" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1901,6 +2279,9 @@
       <c r="E34" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1922,6 +2303,9 @@
       <c r="E35" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -1943,6 +2327,9 @@
       <c r="E36" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1966,6 +2353,9 @@
       </c>
       <c r="F37" s="2" t="s">
         <v>113</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1981,12 +2371,934 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5350A665-8FAA-446C-9A38-ADDFC8BAF301}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C9C01-6B98-46F2-BA6F-B57FDEAD6366}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02332187-9DA7-4DC2-A079-117AC67B24A1}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A508BA2-44A1-43DD-8218-86DB5FD44DC2}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CB9C0C-A0C0-4ECA-AC62-F3786EC3EF20}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="67.08984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7FABA4-635B-4554-81AB-01C2A080F41A}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D391DD-049C-438D-95BC-5A0513ADCD8D}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC20487-49E3-4F67-B621-A94DCA0C2620}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4965DF28-84F1-43A1-8545-11C6B3C7F81F}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D71565C-D7F9-4160-BF08-99D1F16B699C}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2139,12 +3451,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63AAB96-C4C7-49A4-AFE5-C94085460E82}">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2159,6 +3471,2214 @@
       <c r="B2" s="8" t="s">
         <v>136</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B93E8A0-60BC-4F42-8FD8-342781F41E38}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413D04BB-8DCB-458B-99C7-3DBCCF9BCF67}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3447970E-575A-434B-A600-B3689F6C7FAE}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFDBA6-9604-4F06-B6D4-58D9D694FF3B}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FB627B-53E4-4DC3-A025-A74C78086E46}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA328E6-C35F-44E7-AE42-DE4E31D89ECD}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06035E0E-0AA8-41F1-B24A-2DCE1291CAF8}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDF6C1D-7184-473F-B9E4-2F01183FE366}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838F38CF-6446-42CE-BE4F-9CCCB2981B4E}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="83.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979F25E5-EEFC-4202-A3EB-2B03DE8CF6B7}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B71F47-8D28-46B6-8354-F94F003E5038}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC324D7-0FB9-4924-A778-75451F8AB045}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C97DAA-DD7D-4DDC-9E7E-3FB464490588}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE70D465-2B4C-42EA-B96F-851259C6DFC9}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B50A967-3E14-484D-94B9-E08BE00A4238}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83AFC8E-44E0-488C-94AE-7EC4301FFEB6}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799061A7-9C58-412B-8802-1F9D9A4AC6A9}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFF6E77-553B-4EB2-8197-63A153668C36}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7C7960-F797-4BA9-8D28-214E33181E52}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="113.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92B1D41-54AA-4601-9C14-60D54F51C398}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="127.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E1EC56-3467-4E2F-A311-CC75416629F7}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C9506-0CAA-4767-90B0-173877F26C3A}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449DD785-3CC6-4521-B327-9BCDA71D34C5}">
+  <dimension ref="B2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3"/>
